--- a/rbgCalibration.xlsx
+++ b/rbgCalibration.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaonengquan/Documents/ista303/skittle-sorter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6561C5-5058-194A-802D-38F098051389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA8825D-6A5E-1A49-A5EC-94CD36EEA59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6F75EF07-C921-9A4B-B905-F79BEFDC8FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -134,12 +136,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,11 +186,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439D0A85-F572-334E-AE5A-17BB2EA796D0}">
   <dimension ref="B1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,7 +528,7 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -503,7 +540,7 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -949,7 +986,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -982,7 +1019,7 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -1408,7 +1445,7 @@
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
